--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-16 16:31:04.017411 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-23 09:16:16.702605 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-23 09:16:16.702605 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-23 11:08:49.355887 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-23 11:08:49.355887 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 08:04:00.047137 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 08:04:00.047137 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 08:18:05.422664 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 08:18:05.422664 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 09:41:19.081665 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 09:41:19.081665 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 11:34:53.569788 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 11:34:53.569788 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 11:57:39.286575 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-21 11:57:39.286575 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-22 08:30:45.511305 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-22 08:30:45.511305 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-22 16:05:29.780787 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-22 16:05:29.780787 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 08:56:35.527739 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 08:56:35.527739 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 09:11:17.558809 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 09:11:17.558809 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 10:36:41.898068 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 10:36:41.898068 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 10:39:05.920945 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-23 10:39:05.920945 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-27 12:46:23.831198 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-27 12:46:23.831198 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 08:49:20.506228 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 08:49:20.506228 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 09:09:30.774855 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 09:09:30.774855 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 09:13:49.482970 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 09:13:49.482970 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 10:53:08.247076 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 10:53:08.247076 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 14:45:23.168606 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 14:45:23.168606 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:24:51.133385 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:24:51.133385 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:27:17.773485 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:27:17.773485 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:53:37.141337 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:53:37.141337 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:55:32.605631 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>index</t>
   </si>
@@ -25,10 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-28 15:55:32.605631 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 11:49:35.034419 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>chart!$C$3:$C$13</c:f>
+              <c:f>chart!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -176,7 +173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$D$3:$D$13</c:f>
+              <c:f>chart!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -335,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D13" totalsRowShown="0">
-  <autoFilter ref="B2:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C13" totalsRowShown="0">
+  <autoFilter ref="A2:C13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="x"/>
@@ -631,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -640,148 +637,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>-4</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
         <v>25</v>
       </c>
     </row>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 11:49:35.034419 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 12:23:01.854325 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 12:23:01.854325 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 12:24:45.835566 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 12:24:45.835566 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 13:05:05.663931 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-29 13:05:05.663931 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-30 13:30:36.989873 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-10-30 13:30:36.989873 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-03 12:51:16.588043 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-03 12:51:16.588043 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-03 14:58:41.992338 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-03 14:58:41.992338 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-04 14:52:06.687170 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-04 14:52:06.687170 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-05 09:42:01.289135 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-05 09:42:01.289135 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 10:26:03.535606 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 10:26:03.535606 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 10:36:46.355285 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 10:36:46.355285 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 15:38:14.295776 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-07 15:38:14.295776 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-12 11:29:21.368733 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-12 11:29:21.368733 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-12 11:38:44.902396 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>index</t>
   </si>
@@ -25,7 +25,10 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-12 11:38:44.902396 - DatamodelUrl=None</t>
+    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
+  </si>
+  <si>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:02:32.901767 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -78,11 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,7 +137,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>chart!$B$3:$B$13</c:f>
+              <c:f>chart!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -173,7 +179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$C$3:$C$13</c:f>
+              <c:f>chart!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -332,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C13" totalsRowShown="0">
-  <autoFilter ref="A2:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C14" totalsRowShown="0">
+  <autoFilter ref="A3:C14"/>
   <tableColumns count="3">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="x"/>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -643,138 +649,138 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="B7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
+      <c r="C14" s="3">
         <v>25</v>
       </c>
     </row>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>index</t>
   </si>
@@ -25,10 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
-  </si>
-  <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:02:32.901767 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:14:57.948626 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>chart!$B$4:$B$14</c:f>
+              <c:f>chart!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -179,7 +176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$C$4:$C$14</c:f>
+              <c:f>chart!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -338,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C14" totalsRowShown="0">
-  <autoFilter ref="A3:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C13" totalsRowShown="0">
+  <autoFilter ref="A2:C13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="x"/>
@@ -634,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -649,138 +646,138 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C4" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C5" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C6" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
         <v>25</v>
       </c>
     </row>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:14:57.948626 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:19:53.618722 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-11-24 15:19:53.618722 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-12-05 11:58:46.750535 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>

--- a/xl/chart.xlsx
+++ b/xl/chart.xlsx
@@ -25,7 +25,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-12-05 11:58:46.750535 - DatamodelUrl=None</t>
+    <t>#Title=chart - HeaderDepth=1 - IsTransposed=False - DateTime=2025-12-05 12:00:00.674223 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
